--- a/docs/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/docs/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61D07DA-7BC8-4978-AE89-BFFB4D903D2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1013F044-7BB0-4359-86E1-390EF0DF3DF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1569" yWindow="0" windowWidth="29511" windowHeight="17846" tabRatio="634" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="634" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,16 @@
     <sheet name="Blank" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="891">
   <si>
     <t>Test Case</t>
   </si>
@@ -994,9 +999,6 @@
     <t>Confirm that Card Holder Fingerprints data object conforms to SP800-73 Appendix A</t>
   </si>
   <si>
-    <t>BERTLV.1, BERTLV.2, BERTLV.3, BERTLV.4,  73-4.24, 73-4.25, 73-4.26 73-4.23</t>
-  </si>
-  <si>
     <t>Confirm that Printed Information data object conforms to SP800-73 Appendix A</t>
   </si>
   <si>
@@ -1006,9 +1008,6 @@
     <t>Confirm that Card Holder Facial Image data object conforms to SP800-73 Appendix A</t>
   </si>
   <si>
-    <t>BERTLV.1, BERTLV.2, BERTLV.3, BERTLV.4,  73-4.32, 73-4.25, 73-4.26 73-4.23</t>
-  </si>
-  <si>
     <t>Confirm that X509 Cert for Digital Signature data object conforms to SP800-73 Appendix A</t>
   </si>
   <si>
@@ -1078,9 +1077,6 @@
     <t>Validate date encoding on Validity Period in PIV Patron Format</t>
   </si>
   <si>
-    <t>Check for two dates, format</t>
-  </si>
-  <si>
     <t>9.1.2.7</t>
   </si>
   <si>
@@ -1153,9 +1149,6 @@
     <t>9.2.2.6</t>
   </si>
   <si>
-    <t>Check for two dates, formatted to match creation date</t>
-  </si>
-  <si>
     <t>9.2.2.7</t>
   </si>
   <si>
@@ -1195,20 +1188,12 @@
     <t>Validate that the View Header of the BDB conforms to Table 3 of SP800-76</t>
   </si>
   <si>
-    <t>76.19, 76.20, 76.21, 76.22, 76.23
-repeated for each view header</t>
-  </si>
-  <si>
     <t>9.3.3</t>
   </si>
   <si>
     <t>Validate that each instance of Fingerprint Minutiae data conforms to specifications in Table 3 of SP800-76</t>
   </si>
   <si>
-    <t>76.24, 76.25, 76.26, 76.27, 76.28
-repeated for each minutae instance</t>
-  </si>
-  <si>
     <t>9.4.1</t>
   </si>
   <si>
@@ -1386,18 +1371,12 @@
     <t>Setting final byte of command string to 0x00 retrieves entire data object regardless of size</t>
   </si>
   <si>
-    <t>Auto</t>
-  </si>
-  <si>
     <t>73-4.1</t>
   </si>
   <si>
     <t>CCC blob no larger than 297 bytes</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>73-4.2</t>
   </si>
   <si>
@@ -1422,9 +1401,6 @@
     <t>Values of tags present conform to vendor-supplied data</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>73-4.7</t>
   </si>
   <si>
@@ -2161,13 +2137,583 @@
   </si>
   <si>
     <t>PIV OID for test CHUID signer cert</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>PKIX_Test_1</t>
+  </si>
+  <si>
+    <t>PKIX_Test_2</t>
+  </si>
+  <si>
+    <t>PKIX_Test_3</t>
+  </si>
+  <si>
+    <t>PKIX_Test_4</t>
+  </si>
+  <si>
+    <t>PKIX_Test_5</t>
+  </si>
+  <si>
+    <t>PKIX_Test_6</t>
+  </si>
+  <si>
+    <t>PKIX_Test_7</t>
+  </si>
+  <si>
+    <t>PKIX_Test_8</t>
+  </si>
+  <si>
+    <t>PKIX_Test_9</t>
+  </si>
+  <si>
+    <t>PKIX_Test_10</t>
+  </si>
+  <si>
+    <t>PKIX_Test_11</t>
+  </si>
+  <si>
+    <t>PKIX_Test_12</t>
+  </si>
+  <si>
+    <t>PKIX_Test_13</t>
+  </si>
+  <si>
+    <t>PKIX_Test_14</t>
+  </si>
+  <si>
+    <t>PKIX_Test_15</t>
+  </si>
+  <si>
+    <t>PKIX_Test_16</t>
+  </si>
+  <si>
+    <t>PKIX_Test_17</t>
+  </si>
+  <si>
+    <t>PKIX_Test_18</t>
+  </si>
+  <si>
+    <t>PKIX_Test_19</t>
+  </si>
+  <si>
+    <t>PKIX_Test_20</t>
+  </si>
+  <si>
+    <t>PKIX_Test_21</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.PKIX_X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.SP800_78_X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>sp800_78_Test_1</t>
+  </si>
+  <si>
+    <t>sp800_78_Test_2</t>
+  </si>
+  <si>
+    <t>sp800_78_Test_3</t>
+  </si>
+  <si>
+    <t>CMS_Test_1</t>
+  </si>
+  <si>
+    <t>CMS_Test_2</t>
+  </si>
+  <si>
+    <t>CMS_Test_3</t>
+  </si>
+  <si>
+    <t>CMS_Test_4</t>
+  </si>
+  <si>
+    <t>CMS_Test_5</t>
+  </si>
+  <si>
+    <t>CMS_Test_6</t>
+  </si>
+  <si>
+    <t>CMS_Test_7</t>
+  </si>
+  <si>
+    <t>CMS_Test_8</t>
+  </si>
+  <si>
+    <t>CMS_Test_9</t>
+  </si>
+  <si>
+    <t>CMS_Test_10</t>
+  </si>
+  <si>
+    <t>CMS_Test_11</t>
+  </si>
+  <si>
+    <t>CMS_Test_12</t>
+  </si>
+  <si>
+    <t>CMS_Test_13</t>
+  </si>
+  <si>
+    <t>CMS_Test_14</t>
+  </si>
+  <si>
+    <t>CMS_Test_15</t>
+  </si>
+  <si>
+    <t>CMS_Test_16</t>
+  </si>
+  <si>
+    <t>CMS_Test_17</t>
+  </si>
+  <si>
+    <t>CMS_Test_18</t>
+  </si>
+  <si>
+    <t>CMS_Test_19</t>
+  </si>
+  <si>
+    <t>CMS_Test_20</t>
+  </si>
+  <si>
+    <t>CMS_Test_21</t>
+  </si>
+  <si>
+    <t>CMS_Test_22</t>
+  </si>
+  <si>
+    <t>CMS_Test_23</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformanceLib.tests.CMSTests</t>
+  </si>
+  <si>
+    <t>sp800_76Test_1</t>
+  </si>
+  <si>
+    <t>sp800_76Test_2</t>
+  </si>
+  <si>
+    <t>sp800_76Test_3</t>
+  </si>
+  <si>
+    <t>sp800_76Test_4</t>
+  </si>
+  <si>
+    <t>sp800_76Test_5</t>
+  </si>
+  <si>
+    <t>sp800_76Test_6</t>
+  </si>
+  <si>
+    <t>sp800_76Test_7</t>
+  </si>
+  <si>
+    <t>sp800_76Test_8</t>
+  </si>
+  <si>
+    <t>sp800_76Test_9</t>
+  </si>
+  <si>
+    <t>sp800_76Test_10</t>
+  </si>
+  <si>
+    <t>sp800_76Test_11</t>
+  </si>
+  <si>
+    <t>sp800_76Test_12</t>
+  </si>
+  <si>
+    <t>sp800_76Test_13</t>
+  </si>
+  <si>
+    <t>sp800_76Test_14</t>
+  </si>
+  <si>
+    <t>sp800_76Test_15</t>
+  </si>
+  <si>
+    <t>sp800_76Test_16</t>
+  </si>
+  <si>
+    <t>sp800_76Test_17</t>
+  </si>
+  <si>
+    <t>sp800_76Test_18</t>
+  </si>
+  <si>
+    <t>sp800_76Test_19</t>
+  </si>
+  <si>
+    <t>sp800_76Test_20</t>
+  </si>
+  <si>
+    <t>sp800_76Test_21</t>
+  </si>
+  <si>
+    <t>sp800_76Test_22</t>
+  </si>
+  <si>
+    <t>sp800_76Test_23</t>
+  </si>
+  <si>
+    <t>sp800_76Test_24</t>
+  </si>
+  <si>
+    <t>sp800_76Test_25</t>
+  </si>
+  <si>
+    <t>sp800_76Test_26</t>
+  </si>
+  <si>
+    <t>sp800_76Test_27</t>
+  </si>
+  <si>
+    <t>sp800_76Test_28</t>
+  </si>
+  <si>
+    <t>sp800_76Test_29</t>
+  </si>
+  <si>
+    <t>sp800_76Test_30</t>
+  </si>
+  <si>
+    <t>sp800_76Test_31</t>
+  </si>
+  <si>
+    <t>sp800_76Test_32</t>
+  </si>
+  <si>
+    <t>sp800_76Test_33</t>
+  </si>
+  <si>
+    <t>sp800_76Test_34</t>
+  </si>
+  <si>
+    <t>sp800_76Test_35</t>
+  </si>
+  <si>
+    <t>sp800_76Test_36</t>
+  </si>
+  <si>
+    <t>sp800_76Test_37</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.SP800_76_Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp800_73_4_Test_1 </t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_2</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_3</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_4</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_5</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_6</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp800_73_4_Test_8 </t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_9</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_10</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_11</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_12</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_13</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_14</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_15</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_16</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_17</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_18</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_19</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_20</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_21</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_22</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_23</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_24</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_25</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_26</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_27</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_28</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_29</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_30</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_31</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_32</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_33</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_34</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_35</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_36</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.SP800_73_4CCCTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.SP800_73_4CHUIDTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.SP800_73_4FingerprintsTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.SP800_73_4PrintedInfoTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.SP800_73_4FacialImageTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformancelib.tests.SP800_73_4SecurityObjectTests</t>
+  </si>
+  <si>
+    <t>berTLV_Test_1</t>
+  </si>
+  <si>
+    <t>berTLV_Test_2</t>
+  </si>
+  <si>
+    <t>berTLV_Test_3</t>
+  </si>
+  <si>
+    <t>berTLV_Test_4</t>
+  </si>
+  <si>
+    <t>berTLV_Test_5</t>
+  </si>
+  <si>
+    <t>gov.gsa.conformanceLib.tests.BER_TLVTests</t>
+  </si>
+  <si>
+    <t>76.38</t>
+  </si>
+  <si>
+    <t>76.39</t>
+  </si>
+  <si>
+    <t>76.40</t>
+  </si>
+  <si>
+    <t>76.41</t>
+  </si>
+  <si>
+    <t>76.42</t>
+  </si>
+  <si>
+    <t>76.43</t>
+  </si>
+  <si>
+    <t>76.44</t>
+  </si>
+  <si>
+    <t>76.45</t>
+  </si>
+  <si>
+    <t>76.46</t>
+  </si>
+  <si>
+    <t>76.48</t>
+  </si>
+  <si>
+    <t>76.49</t>
+  </si>
+  <si>
+    <t>76.50</t>
+  </si>
+  <si>
+    <t>Verify that the CBEFF Biometric Data Block (BDB) Format Type is set to the appropriate value</t>
+  </si>
+  <si>
+    <t>Verify that that the CBEFF Creation Date is encoded in 8 bytes using a binary representation of "YYYYMMDDhhmmssZ"</t>
+  </si>
+  <si>
+    <t>Verify date encoding of CBEFF Validity Period in PIV Patron Format</t>
+  </si>
+  <si>
+    <t>Verify that that CBEFF Biometric Type has the correct 24-bt value</t>
+  </si>
+  <si>
+    <t>Verify that for the mandatory minutia PIV card templates, the CBEFF Biometric Data Type encoding value shall be b100xxxxx, which corresponds to biometric data that has been processed.</t>
+  </si>
+  <si>
+    <t>Verify that the CBEFF Biometric Data Quality field carries valid values</t>
+  </si>
+  <si>
+    <t>Verify that that the CBEFF Creator contains 18 bytes of which the first K &lt;= 17 bytes shall be ASCII characters, and the first of the remaining 18-K shall be a null terminator (zero)</t>
+  </si>
+  <si>
+    <t>Verify that FASC-N field in the CBEFF FASC-N contains the same 25 bytes as the FASC-N component of the CHUID identifier</t>
+  </si>
+  <si>
+    <t>Verify that the CBEFF Reserved for Future Use field is equal to 0x00000000</t>
+  </si>
+  <si>
+    <t>Verify that that the facial image CBEFF Creation Date is encoded in 8 bytes using a binary representation of "YYYYMMDDhhmmssZ"</t>
+  </si>
+  <si>
+    <t>Verify date encoding on facial image CBEFF Validity Period</t>
+  </si>
+  <si>
+    <t>Verify that facial image CBEFF Biometric Type has the value  0x000002 (24 bits)</t>
+  </si>
+  <si>
+    <t>Verify that the facial image CBEFF Biometric Data Quality contains valid values</t>
+  </si>
+  <si>
+    <t>sp800_76Test_38</t>
+  </si>
+  <si>
+    <t>sp800_76Test_39</t>
+  </si>
+  <si>
+    <t>sp800_76Test_40</t>
+  </si>
+  <si>
+    <t>sp800_76Test_41</t>
+  </si>
+  <si>
+    <t>sp800_76Test_42</t>
+  </si>
+  <si>
+    <t>sp800_76Test_43</t>
+  </si>
+  <si>
+    <t>sp800_76Test_44</t>
+  </si>
+  <si>
+    <t>sp800_76Test_45</t>
+  </si>
+  <si>
+    <t>sp800_76Test_46</t>
+  </si>
+  <si>
+    <t>sp800_76Test_47</t>
+  </si>
+  <si>
+    <t>76.47</t>
+  </si>
+  <si>
+    <t>sp800_76Test_48</t>
+  </si>
+  <si>
+    <t>sp800_76Test_49</t>
+  </si>
+  <si>
+    <t>sp800_76Test_50</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_FINGERPRINTS_OID:513,CARDHOLDER_FACIAL_IMAGE_OID:1281</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_FINGERPRINTS_OID:8,CARDHOLDER_FACIAL_IMAGE_OID:2</t>
+  </si>
+  <si>
+    <t>-2, 100</t>
+  </si>
+  <si>
+    <t>BERTLV.1, BERTLV.2, BERTLV.3, BERTLV.4,  73-4.24, 73-4.25, 73-4.26, 73-4.23</t>
+  </si>
+  <si>
+    <t>BERTLV.1, BERTLV.2, BERTLV.3, BERTLV.4,  73-4.32, 73-4.25, 73-4.26, 73-4.23</t>
+  </si>
+  <si>
+    <t>76.19, 76.20, 76.21, 76.22, 76.23</t>
+  </si>
+  <si>
+    <t>repeated for each view header</t>
+  </si>
+  <si>
+    <t>repeated for each minutae instance</t>
+  </si>
+  <si>
+    <t>76.24, 76.25, 76.26, 76.27, 76.28</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_FINGERPRINTS_OID:128,CARDHOLDER_FACIAL_IMAGE_OID:32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2178,6 +2724,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2218,10 +2780,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2242,8 +2840,45 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="37">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2370,7 +3005,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2422,7 +3057,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2626,16 +3261,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A157" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.2109375" customWidth="1"/>
-    <col min="2" max="2" width="57.35546875" customWidth="1"/>
+    <col min="1" max="1" width="37.125" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2651,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2659,7 +3294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +3302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2675,7 +3310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +3318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2691,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2699,7 +3334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2707,7 +3342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2715,7 +3350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2723,7 +3358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2731,7 +3366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2739,7 +3374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2747,7 +3382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2755,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2763,7 +3398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2771,7 +3406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2782,7 +3417,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2793,7 +3428,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2804,7 +3439,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2815,7 +3450,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2826,7 +3461,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2837,7 +3472,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2848,7 +3483,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2859,7 +3494,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2870,7 +3505,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -2881,7 +3516,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2889,7 +3524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2897,7 +3532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2905,7 +3540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2913,7 +3548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2921,7 +3556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2929,7 +3564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2940,7 +3575,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2951,7 +3586,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2962,7 +3597,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2973,7 +3608,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -2984,7 +3619,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2995,7 +3630,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -3006,7 +3641,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,7 +3652,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3028,7 +3663,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -3039,7 +3674,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -3050,7 +3685,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -3061,7 +3696,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3069,7 +3704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3077,7 +3712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -3085,7 +3720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -3093,7 +3728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -3101,7 +3736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -3109,7 +3744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -3117,7 +3752,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -3125,7 +3760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -3133,7 +3768,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -3141,7 +3776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3149,7 +3784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3157,7 +3792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -3165,7 +3800,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -3173,7 +3808,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -3181,7 +3816,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -3189,7 +3824,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -3197,7 +3832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3205,7 +3840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -3213,7 +3848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -3221,7 +3856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -3229,7 +3864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -3237,7 +3872,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -3245,7 +3880,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -3253,7 +3888,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -3261,7 +3896,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -3269,7 +3904,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -3277,7 +3912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -3285,7 +3920,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -3293,7 +3928,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -3301,7 +3936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -3309,7 +3944,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -3317,7 +3952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -3325,7 +3960,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -3333,7 +3968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>130</v>
       </c>
@@ -3341,7 +3976,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>132</v>
       </c>
@@ -3349,7 +3984,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -3357,7 +3992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -3365,7 +4000,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -3373,7 +4008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>139</v>
       </c>
@@ -3381,7 +4016,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>141</v>
       </c>
@@ -3389,7 +4024,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>143</v>
       </c>
@@ -3397,7 +4032,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>144</v>
       </c>
@@ -3405,7 +4040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -3413,7 +4048,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>147</v>
       </c>
@@ -3421,7 +4056,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>148</v>
       </c>
@@ -3429,7 +4064,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>150</v>
       </c>
@@ -3437,7 +4072,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>151</v>
       </c>
@@ -3448,7 +4083,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>153</v>
       </c>
@@ -3459,7 +4094,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>155</v>
       </c>
@@ -3470,7 +4105,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>157</v>
       </c>
@@ -3481,7 +4116,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>159</v>
       </c>
@@ -3492,7 +4127,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -3503,7 +4138,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>162</v>
       </c>
@@ -3514,7 +4149,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -3525,7 +4160,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -3536,7 +4171,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
@@ -3547,7 +4182,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
@@ -3558,7 +4193,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
@@ -3569,7 +4204,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>170</v>
       </c>
@@ -3580,7 +4215,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>171</v>
       </c>
@@ -3591,7 +4226,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>173</v>
       </c>
@@ -3602,7 +4237,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>175</v>
       </c>
@@ -3613,7 +4248,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>176</v>
       </c>
@@ -3624,7 +4259,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>177</v>
       </c>
@@ -3635,7 +4270,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>179</v>
       </c>
@@ -3646,7 +4281,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>181</v>
       </c>
@@ -3657,7 +4292,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>182</v>
       </c>
@@ -3668,7 +4303,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>184</v>
       </c>
@@ -3679,7 +4314,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>185</v>
       </c>
@@ -3690,7 +4325,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>186</v>
       </c>
@@ -3701,7 +4336,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>188</v>
       </c>
@@ -3712,7 +4347,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>190</v>
       </c>
@@ -3723,7 +4358,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>192</v>
       </c>
@@ -3734,7 +4369,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>194</v>
       </c>
@@ -3745,7 +4380,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>196</v>
       </c>
@@ -3756,7 +4391,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>198</v>
       </c>
@@ -3767,7 +4402,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>200</v>
       </c>
@@ -3778,7 +4413,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>202</v>
       </c>
@@ -3789,7 +4424,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>204</v>
       </c>
@@ -3800,7 +4435,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>206</v>
       </c>
@@ -3811,7 +4446,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>208</v>
       </c>
@@ -3822,7 +4457,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>210</v>
       </c>
@@ -3833,7 +4468,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>212</v>
       </c>
@@ -3844,7 +4479,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>214</v>
       </c>
@@ -3855,7 +4490,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>216</v>
       </c>
@@ -3866,7 +4501,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>217</v>
       </c>
@@ -3877,7 +4512,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>219</v>
       </c>
@@ -3888,7 +4523,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>221</v>
       </c>
@@ -3899,7 +4534,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>223</v>
       </c>
@@ -3910,7 +4545,7 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>225</v>
       </c>
@@ -3921,7 +4556,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>227</v>
       </c>
@@ -3932,7 +4567,7 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>229</v>
       </c>
@@ -3943,7 +4578,7 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>231</v>
       </c>
@@ -3954,7 +4589,7 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>232</v>
       </c>
@@ -3965,7 +4600,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>234</v>
       </c>
@@ -3976,7 +4611,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>235</v>
       </c>
@@ -3987,7 +4622,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>237</v>
       </c>
@@ -3998,7 +4633,7 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>239</v>
       </c>
@@ -4009,7 +4644,7 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>241</v>
       </c>
@@ -4020,7 +4655,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>243</v>
       </c>
@@ -4031,7 +4666,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>245</v>
       </c>
@@ -4042,7 +4677,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>246</v>
       </c>
@@ -4053,7 +4688,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>248</v>
       </c>
@@ -4064,7 +4699,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>250</v>
       </c>
@@ -4075,7 +4710,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>251</v>
       </c>
@@ -4086,7 +4721,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>253</v>
       </c>
@@ -4097,7 +4732,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>255</v>
       </c>
@@ -4108,7 +4743,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>256</v>
       </c>
@@ -4119,7 +4754,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>258</v>
       </c>
@@ -4130,7 +4765,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>260</v>
       </c>
@@ -4141,7 +4776,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>261</v>
       </c>
@@ -4152,7 +4787,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>263</v>
       </c>
@@ -4163,7 +4798,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>265</v>
       </c>
@@ -4174,7 +4809,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>267</v>
       </c>
@@ -4185,7 +4820,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>269</v>
       </c>
@@ -4196,7 +4831,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>271</v>
       </c>
@@ -4207,7 +4842,7 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>272</v>
       </c>
@@ -4218,7 +4853,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>274</v>
       </c>
@@ -4229,7 +4864,7 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>275</v>
       </c>
@@ -4240,7 +4875,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>277</v>
       </c>
@@ -4251,7 +4886,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>279</v>
       </c>
@@ -4262,7 +4897,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>281</v>
       </c>
@@ -4273,7 +4908,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>283</v>
       </c>
@@ -4284,7 +4919,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>285</v>
       </c>
@@ -4295,7 +4930,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>287</v>
       </c>
@@ -4306,7 +4941,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>289</v>
       </c>
@@ -4317,7 +4952,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>291</v>
       </c>
@@ -4328,7 +4963,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>293</v>
       </c>
@@ -4339,7 +4974,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>294</v>
       </c>
@@ -4350,7 +4985,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>296</v>
       </c>
@@ -4361,7 +4996,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>297</v>
       </c>
@@ -4372,7 +5007,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>299</v>
       </c>
@@ -4383,7 +5018,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>301</v>
       </c>
@@ -4394,7 +5029,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>302</v>
       </c>
@@ -4405,7 +5040,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>304</v>
       </c>
@@ -4416,7 +5051,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>306</v>
       </c>
@@ -4427,7 +5062,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>307</v>
       </c>
@@ -4445,28 +5080,34 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.2109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="82.2109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="123.640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="29.125" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="82.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="123.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="1025" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="81.25" customWidth="1"/>
+    <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>309</v>
       </c>
@@ -4480,10 +5121,10 @@
         <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>313</v>
       </c>
@@ -4497,10 +5138,10 @@
         <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>313</v>
       </c>
@@ -4514,10 +5155,10 @@
         <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -4531,10 +5172,10 @@
         <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -4545,13 +5186,13 @@
         <v>320</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>321</v>
+        <v>884</v>
       </c>
       <c r="E5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -4559,16 +5200,16 @@
         <v>8.5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="E6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -4576,16 +5217,16 @@
         <v>8.6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>325</v>
+        <v>885</v>
       </c>
       <c r="E7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>313</v>
       </c>
@@ -4593,16 +5234,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>319</v>
       </c>
       <c r="E8" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>313</v>
       </c>
@@ -4610,16 +5251,16 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>319</v>
       </c>
       <c r="E9" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>313</v>
       </c>
@@ -4627,2520 +5268,3544 @@
         <v>8.9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>319</v>
       </c>
       <c r="E10" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>313</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="E11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>313</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="E12" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>313</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D13" s="4">
         <v>76.5</v>
       </c>
       <c r="E13" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>313</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="E14" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>313</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="E15" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>313</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>842</v>
       </c>
       <c r="E16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>313</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>843</v>
       </c>
       <c r="E17" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>313</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>844</v>
       </c>
       <c r="E18" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>313</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>845</v>
       </c>
       <c r="E19" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>313</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>846</v>
       </c>
       <c r="E20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>313</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>847</v>
       </c>
       <c r="E21" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>313</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>848</v>
       </c>
       <c r="E22" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>313</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>849</v>
       </c>
       <c r="E23" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>313</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>850</v>
       </c>
       <c r="E24" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>313</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>313</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E26" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>313</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E27" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>313</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E28" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>313</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>842</v>
       </c>
       <c r="E29" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>313</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>843</v>
       </c>
       <c r="E30" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>313</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>374</v>
+        <v>346</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>844</v>
       </c>
       <c r="E31" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>313</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>845</v>
       </c>
       <c r="E32" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>313</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>846</v>
       </c>
       <c r="E33" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>313</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>847</v>
       </c>
       <c r="E34" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>313</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>848</v>
       </c>
       <c r="E35" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>313</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>849</v>
       </c>
       <c r="E36" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>313</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>850</v>
       </c>
       <c r="E37" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>313</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E38" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>313</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>388</v>
+        <v>886</v>
       </c>
       <c r="E39" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+      <c r="F39" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>313</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>391</v>
+        <v>889</v>
       </c>
       <c r="E40" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+      <c r="F40" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>313</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E41" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>313</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E42" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>313</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E43" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>313</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E44" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>313</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E45" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>313</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E46" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>313</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E47" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>313</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E48" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>313</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E49" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>313</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E50" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>313</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E51" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>313</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E52" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>313</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E53" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>313</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E54" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>313</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E55" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>313</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E56" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>313</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E57" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>313</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E58" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="81.35546875" style="3" customWidth="1"/>
-    <col min="3" max="1025" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="81.375" style="3" customWidth="1"/>
+    <col min="6" max="1028" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="F4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C5" t="s">
+        <v>839</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="F5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>443</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C6" t="s">
+        <v>840</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C6" t="s">
-        <v>687</v>
+      <c r="F6" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="100" customWidth="1"/>
-    <col min="3" max="3" width="22.78515625" customWidth="1"/>
-    <col min="4" max="1026" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100" customWidth="1"/>
+    <col min="5" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="1028" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C3" t="s">
+        <v>794</v>
+      </c>
+      <c r="D3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>451</v>
       </c>
-      <c r="E1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B5" t="str">
+      <c r="B5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D5" t="str">
         <f>"CCC Optional Tags 0xE3 and 0xE4 may be present or absent; if present are after tags listed in " &amp; A4 &amp; "and are in that order"</f>
         <v>CCC Optional Tags 0xE3 and 0xE4 may be present or absent; if present are after tags listed in 73-4.3and are in that order</v>
       </c>
-      <c r="D5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B6" t="str">
+        <v>452</v>
+      </c>
+      <c r="B6" t="s">
+        <v>829</v>
+      </c>
+      <c r="C6" t="s">
+        <v>797</v>
+      </c>
+      <c r="D6" t="str">
         <f>"CCC Tag 0xFE present and after any tags from " &amp; A4 &amp; " and " &amp; A5</f>
         <v>CCC Tag 0xFE present and after any tags from 73-4.3 and 73-4.4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="E6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="F7" t="s">
+        <v>681</v>
+      </c>
+      <c r="G7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C8" t="s">
+        <v>799</v>
+      </c>
+      <c r="D8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" t="s">
+        <v>830</v>
+      </c>
+      <c r="C9" t="s">
+        <v>800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B11" t="s">
+        <v>830</v>
+      </c>
+      <c r="C11" t="s">
+        <v>802</v>
+      </c>
+      <c r="D11" t="s">
         <v>462</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>463</v>
       </c>
-      <c r="E7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
+        <v>830</v>
+      </c>
+      <c r="C12" t="s">
+        <v>803</v>
+      </c>
+      <c r="D12" t="s">
         <v>464</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F12" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>465</v>
       </c>
-      <c r="D8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E8" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B13" t="s">
+        <v>830</v>
+      </c>
+      <c r="C13" t="s">
+        <v>804</v>
+      </c>
+      <c r="D13" t="s">
         <v>466</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>467</v>
       </c>
-      <c r="D9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B14" t="s">
+        <v>830</v>
+      </c>
+      <c r="C14" t="s">
+        <v>805</v>
+      </c>
+      <c r="D14" t="s">
         <v>468</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F14" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>469</v>
       </c>
-      <c r="D10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E10" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B15" t="s">
+        <v>830</v>
+      </c>
+      <c r="C15" t="s">
+        <v>806</v>
+      </c>
+      <c r="D15" t="s">
         <v>470</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>471</v>
       </c>
-      <c r="D11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E11" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B16" t="s">
+        <v>830</v>
+      </c>
+      <c r="C16" t="s">
+        <v>807</v>
+      </c>
+      <c r="D16" t="s">
         <v>472</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F16" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>473</v>
       </c>
-      <c r="D12" t="s">
-        <v>454</v>
-      </c>
-      <c r="E12" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B17" t="s">
+        <v>830</v>
+      </c>
+      <c r="C17" t="s">
+        <v>808</v>
+      </c>
+      <c r="D17" t="s">
         <v>474</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>475</v>
       </c>
-      <c r="D13" t="s">
-        <v>454</v>
-      </c>
-      <c r="E13" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B18" t="s">
+        <v>830</v>
+      </c>
+      <c r="C18" t="s">
+        <v>809</v>
+      </c>
+      <c r="D18" t="s">
         <v>476</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F18" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>477</v>
       </c>
-      <c r="D14" t="s">
-        <v>454</v>
-      </c>
-      <c r="E14" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>831</v>
+      </c>
+      <c r="C19" t="s">
+        <v>810</v>
+      </c>
+      <c r="D19" t="s">
         <v>478</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>479</v>
       </c>
-      <c r="D15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E15" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>831</v>
+      </c>
+      <c r="C20" t="s">
+        <v>811</v>
+      </c>
+      <c r="D20" t="s">
         <v>480</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F20" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>481</v>
       </c>
-      <c r="D16" t="s">
-        <v>454</v>
-      </c>
-      <c r="E16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
+        <v>831</v>
+      </c>
+      <c r="C21" t="s">
+        <v>812</v>
+      </c>
+      <c r="D21" t="s">
         <v>482</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F21" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>483</v>
       </c>
-      <c r="D17" t="s">
-        <v>454</v>
-      </c>
-      <c r="E17" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B22" t="s">
+        <v>831</v>
+      </c>
+      <c r="C22" t="s">
+        <v>813</v>
+      </c>
+      <c r="D22" t="s">
         <v>484</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F22" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>485</v>
       </c>
-      <c r="D18" t="s">
-        <v>454</v>
-      </c>
-      <c r="E18" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B23" t="s">
+        <v>831</v>
+      </c>
+      <c r="C23" t="s">
+        <v>814</v>
+      </c>
+      <c r="D23" t="s">
         <v>486</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>487</v>
       </c>
-      <c r="D19" t="s">
-        <v>454</v>
-      </c>
-      <c r="E19" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B24" t="s">
+        <v>831</v>
+      </c>
+      <c r="C24" t="s">
+        <v>815</v>
+      </c>
+      <c r="D24" t="s">
         <v>488</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F24" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>489</v>
       </c>
-      <c r="D20" t="s">
-        <v>454</v>
-      </c>
-      <c r="E20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="B25" t="s">
+        <v>832</v>
+      </c>
+      <c r="C25" t="s">
+        <v>816</v>
+      </c>
+      <c r="D25" t="s">
         <v>490</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>491</v>
       </c>
-      <c r="D21" t="s">
-        <v>454</v>
-      </c>
-      <c r="E21" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="B26" t="s">
+        <v>832</v>
+      </c>
+      <c r="C26" t="s">
+        <v>817</v>
+      </c>
+      <c r="D26" t="s">
         <v>492</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F26" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>493</v>
       </c>
-      <c r="D22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E22" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="B27" t="s">
+        <v>832</v>
+      </c>
+      <c r="C27" t="s">
+        <v>818</v>
+      </c>
+      <c r="D27" t="s">
         <v>494</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F27" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>495</v>
       </c>
-      <c r="D23" t="s">
-        <v>454</v>
-      </c>
-      <c r="E23" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="B28" t="s">
+        <v>833</v>
+      </c>
+      <c r="C28" t="s">
+        <v>819</v>
+      </c>
+      <c r="D28" t="s">
         <v>496</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F28" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>497</v>
       </c>
-      <c r="D24" t="s">
-        <v>454</v>
-      </c>
-      <c r="E24" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="B29" t="s">
+        <v>833</v>
+      </c>
+      <c r="C29" t="s">
+        <v>820</v>
+      </c>
+      <c r="D29" t="s">
         <v>498</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F29" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>499</v>
       </c>
-      <c r="D25" t="s">
-        <v>454</v>
-      </c>
-      <c r="E25" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
+        <v>833</v>
+      </c>
+      <c r="C30" t="s">
+        <v>821</v>
+      </c>
+      <c r="D30" t="s">
         <v>500</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F30" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>501</v>
       </c>
-      <c r="D26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E26" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="B31" t="s">
+        <v>833</v>
+      </c>
+      <c r="C31" t="s">
+        <v>822</v>
+      </c>
+      <c r="D31" t="s">
         <v>502</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F31" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>503</v>
       </c>
-      <c r="D27" t="s">
-        <v>454</v>
-      </c>
-      <c r="E27" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B32" t="s">
+        <v>833</v>
+      </c>
+      <c r="C32" t="s">
+        <v>823</v>
+      </c>
+      <c r="D32" t="s">
         <v>504</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F32" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>505</v>
       </c>
-      <c r="D28" t="s">
-        <v>454</v>
-      </c>
-      <c r="E28" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="B33" t="s">
+        <v>834</v>
+      </c>
+      <c r="C33" t="s">
+        <v>824</v>
+      </c>
+      <c r="D33" t="s">
         <v>506</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F33" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>507</v>
       </c>
-      <c r="D29" t="s">
-        <v>454</v>
-      </c>
-      <c r="E29" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="B34" t="s">
+        <v>835</v>
+      </c>
+      <c r="C34" t="s">
+        <v>825</v>
+      </c>
+      <c r="D34" t="s">
         <v>508</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F34" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>509</v>
       </c>
-      <c r="D30" t="s">
-        <v>454</v>
-      </c>
-      <c r="E30" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="B35" t="s">
+        <v>835</v>
+      </c>
+      <c r="C35" t="s">
+        <v>826</v>
+      </c>
+      <c r="D35" t="s">
         <v>510</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F35" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>511</v>
       </c>
-      <c r="D31" t="s">
-        <v>454</v>
-      </c>
-      <c r="E31" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="B36" t="s">
+        <v>835</v>
+      </c>
+      <c r="C36" t="s">
+        <v>827</v>
+      </c>
+      <c r="D36" t="s">
         <v>512</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F36" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>513</v>
       </c>
-      <c r="D32" t="s">
-        <v>454</v>
-      </c>
-      <c r="E32" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="B37" t="s">
+        <v>835</v>
+      </c>
+      <c r="C37" t="s">
+        <v>828</v>
+      </c>
+      <c r="D37" t="s">
         <v>514</v>
       </c>
-      <c r="B33" t="s">
-        <v>515</v>
-      </c>
-      <c r="D33" t="s">
-        <v>454</v>
-      </c>
-      <c r="E33" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>516</v>
-      </c>
-      <c r="B34" t="s">
-        <v>517</v>
-      </c>
-      <c r="D34" t="s">
-        <v>454</v>
-      </c>
-      <c r="E34" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>518</v>
-      </c>
-      <c r="B35" t="s">
-        <v>519</v>
-      </c>
-      <c r="E35" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>520</v>
-      </c>
-      <c r="B36" t="s">
-        <v>521</v>
-      </c>
-      <c r="E36" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>522</v>
-      </c>
-      <c r="B37" t="s">
-        <v>523</v>
-      </c>
-      <c r="E37" t="s">
-        <v>688</v>
+      <c r="F37" t="s">
+        <v>681</v>
+      </c>
+      <c r="G37" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.85546875" style="4" customWidth="1"/>
-    <col min="3" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="6" max="1028" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E1" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>76.099999999999994</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="F8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="F9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="F10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="F11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="F12" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C8" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="F13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="F14" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="C10" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="F15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C11" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="F16" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C12" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="F17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C13" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="F18" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C14" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="F19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C15" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="F20" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="F21" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C17" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="F22" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C18" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="F23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C19" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="F24" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="F25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C21" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="F26" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C22" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="F27" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C23" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="F28" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C24" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="F29" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C25" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="F30" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C26" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="F31" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C27" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="F32" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C28" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="F33" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C29" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="F34" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C30" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="F35" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C31" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="F36" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C32" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="F37" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C33" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C34" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C35" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C36" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C37" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="C38" t="s">
-        <v>687</v>
+      <c r="F38" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="41.35546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.0703125" style="6" customWidth="1"/>
-    <col min="6" max="1026" width="10.5" style="6" customWidth="1"/>
-    <col min="1027" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="33.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29" style="6" customWidth="1"/>
+    <col min="8" max="1028" width="10.5" style="6" customWidth="1"/>
+    <col min="1029" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
+      <c r="E1" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="F18" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+      <c r="F19" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
+      <c r="F20" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
+      <c r="F22" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="F23" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>637</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.640625" style="4" customWidth="1"/>
-    <col min="3" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="75.625" style="4" customWidth="1"/>
+    <col min="6" max="1028" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E1" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="C2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
+        <v>629</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="C3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
+        <v>631</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C4" t="s">
-        <v>687</v>
+        <v>633</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F4" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
-    <col min="2" max="3" width="44.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" style="6" customWidth="1"/>
-    <col min="6" max="1026" width="10.5" style="6" customWidth="1"/>
-    <col min="1027" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="53.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
+    <col min="4" max="5" width="44.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="44.5" style="6" customWidth="1"/>
+    <col min="8" max="1028" width="10.5" style="6" customWidth="1"/>
+    <col min="1029" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E13" s="6" t="s">
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7148,20 +8813,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="75.640625" customWidth="1"/>
+    <col min="2" max="2" width="75.625" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B1" t="s">
         <v>311</v>
@@ -7170,5 +8835,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/docs/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\git\piv-conformance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C936CACE-5CC5-46E6-992A-C1B0D84C4EF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB9EAC4-7585-464B-8B50-98A1641D1EC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="195" windowWidth="28650" windowHeight="15975" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="1173">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3041,15 +3041,9 @@
     <t>CMS_Test_4</t>
   </si>
   <si>
-    <t>Verify digestAlgorithms attribute is present and algorithm is present and consistent with signature algorithm</t>
-  </si>
-  <si>
     <t>CMS_Test_5</t>
   </si>
   <si>
-    <t>Ensure encapsulated content is absent and eContentType is id-piv-CHUIDSecurityContent in encapContentInfo</t>
-  </si>
-  <si>
     <t>CMS_Test_6</t>
   </si>
   <si>
@@ -3071,9 +3065,6 @@
     <t>CMS_Test_9</t>
   </si>
   <si>
-    <t>Ensure that the Issuer and Serial in the signer info corresponds to the issuer and serial values in the signer certificate</t>
-  </si>
-  <si>
     <t>CMS.11</t>
   </si>
   <si>
@@ -3086,9 +3077,6 @@
     <t>CMS_Test_12</t>
   </si>
   <si>
-    <t>Validate that signed attributes includes pivSigner-DN and that this DN matches the one asserted in signing certificate</t>
-  </si>
-  <si>
     <t>CMS_Test_13</t>
   </si>
   <si>
@@ -3128,15 +3116,9 @@
     <t>CMS_Test_17</t>
   </si>
   <si>
-    <t>Confirm that signed attributes include pivFASC-N and entryUUID attributes and that they match FASC-N and GUID read from CHUID container</t>
-  </si>
-  <si>
     <t>2.16.840.1.101.3.6.6, 1.3.6.1.1.16.4</t>
   </si>
   <si>
-    <t>OIDs for piv-FASC-N, OID for entryUUID</t>
-  </si>
-  <si>
     <t>CMS_Test_18</t>
   </si>
   <si>
@@ -3471,6 +3453,105 @@
   </si>
   <si>
     <t>PKIX_Test_26</t>
+  </si>
+  <si>
+    <t>CMS.24</t>
+  </si>
+  <si>
+    <t>CMS_Test_24</t>
+  </si>
+  <si>
+    <t>CMS.4_Extn Verify digest algorithm is present</t>
+  </si>
+  <si>
+    <t>CMS.25</t>
+  </si>
+  <si>
+    <t>CMS_Test_25</t>
+  </si>
+  <si>
+    <t>CMS.4_Extn Verify that digest algorithm is consistent with the signature algorithm</t>
+  </si>
+  <si>
+    <t>Verify digestAlgorithms attribute is present</t>
+  </si>
+  <si>
+    <t>CMS.26</t>
+  </si>
+  <si>
+    <t>CMS_Test_26</t>
+  </si>
+  <si>
+    <t>CMS.5_Extn Ensure eContentType is id-piv-CHUIDSecurityContent in encapContentInfo</t>
+  </si>
+  <si>
+    <t>Ensure encapsulated content is absent</t>
+  </si>
+  <si>
+    <t>CMS.27</t>
+  </si>
+  <si>
+    <t>CMS_Test_27</t>
+  </si>
+  <si>
+    <t>CMS.9_Extn Ensure that the Serial in the signer info corresponds to the serial value in the signer certificate</t>
+  </si>
+  <si>
+    <t>Ensure that the Issuer in the signer info corresponds to the issuer value in the signer certificate</t>
+  </si>
+  <si>
+    <t>CMS.28</t>
+  </si>
+  <si>
+    <t>CMS_Test_28</t>
+  </si>
+  <si>
+    <t>CMS.12_Extn Validate that signed attribute pivSigner-DN matches the one asserted in signing certificate</t>
+  </si>
+  <si>
+    <t>Validate that signed attributes includes pivSigner-DN</t>
+  </si>
+  <si>
+    <t>CMS.29</t>
+  </si>
+  <si>
+    <t>CMS_Test_29</t>
+  </si>
+  <si>
+    <t>CMS.30</t>
+  </si>
+  <si>
+    <t>CMS_Test_30</t>
+  </si>
+  <si>
+    <t>CMS.31</t>
+  </si>
+  <si>
+    <t>CMS_Test_31</t>
+  </si>
+  <si>
+    <t>CMS.17_Extn Confirm that signed attributes include entryUUID attribute</t>
+  </si>
+  <si>
+    <t>CMS.17_Extn Confirm that signed attribute pivFASC-N matches FASC-N read from CHUID container</t>
+  </si>
+  <si>
+    <t>CMS.17_Extn Confirm that signed attribute entryUUID matches GUID read from CHUID container</t>
+  </si>
+  <si>
+    <t>Confirm that signed attributes include pivFASC-N attribute</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.6.6</t>
+  </si>
+  <si>
+    <t>OID for piv-FASC-N</t>
+  </si>
+  <si>
+    <t>1.3.6.1.1.16.4</t>
+  </si>
+  <si>
+    <t>OID for entryUUID; CMS.29 and CMS.17 could be the same test case with different input parameters</t>
   </si>
 </sst>
 </file>
@@ -7909,8 +7990,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209"/>
+    <sheetView topLeftCell="B214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11038,7 +11119,7 @@
         <v>373</v>
       </c>
       <c r="D194" s="42" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E194" s="11"/>
       <c r="F194" s="3">
@@ -11149,11 +11230,11 @@
         <v>385</v>
       </c>
       <c r="C201" s="41" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="11" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="F201" s="48" t="s">
         <v>273</v>
@@ -11171,7 +11252,7 @@
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="11" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="F202" s="48" t="s">
         <v>273</v>
@@ -11185,7 +11266,7 @@
         <v>389</v>
       </c>
       <c r="C203" s="42" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="11"/>
@@ -11250,7 +11331,7 @@
         <v>399</v>
       </c>
       <c r="D207" s="42" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="E207" s="11"/>
       <c r="F207" s="3">
@@ -13054,7 +13135,7 @@
         <v>594</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E321" s="11"/>
       <c r="F321" s="3" t="s">
@@ -13085,12 +13166,12 @@
         <v>599</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="11"/>
       <c r="F323" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -13248,7 +13329,7 @@
         <v>627</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E333" s="11"/>
       <c r="F333" s="3" t="s">
@@ -13270,7 +13351,7 @@
         <v>630</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -13298,7 +13379,7 @@
         <v>594</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="E336" s="11"/>
       <c r="F336" s="42" t="s">
@@ -13318,7 +13399,7 @@
       <c r="D337" s="5"/>
       <c r="E337" s="24"/>
       <c r="F337" s="42" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -13350,7 +13431,7 @@
       <c r="D339" s="27"/>
       <c r="E339" s="11"/>
       <c r="F339" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -13368,7 +13449,7 @@
         <v>642</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -13600,7 +13681,7 @@
         <v>627</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E355" s="11"/>
       <c r="F355" s="3" t="s">
@@ -13622,7 +13703,7 @@
         <v>630</v>
       </c>
       <c r="F356" s="42" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -13650,7 +13731,7 @@
         <v>594</v>
       </c>
       <c r="D358" s="27" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="3" t="s">
@@ -13670,7 +13751,7 @@
       <c r="D359" s="27"/>
       <c r="E359" s="24"/>
       <c r="F359" s="3" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -13702,7 +13783,7 @@
       <c r="D361" s="7"/>
       <c r="E361" s="11"/>
       <c r="F361" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -13720,7 +13801,7 @@
         <v>642</v>
       </c>
       <c r="F362" s="42" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -13952,7 +14033,7 @@
         <v>627</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="3" t="s">
@@ -13974,7 +14055,7 @@
         <v>630</v>
       </c>
       <c r="F378" s="42" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -14002,7 +14083,7 @@
         <v>594</v>
       </c>
       <c r="D380" s="27" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="E380" s="11"/>
       <c r="F380" s="3" t="s">
@@ -14022,7 +14103,7 @@
       <c r="D381" s="27"/>
       <c r="E381" s="24"/>
       <c r="F381" s="3" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -14054,7 +14135,7 @@
       <c r="D383" s="7"/>
       <c r="E383" s="11"/>
       <c r="F383" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -14072,7 +14153,7 @@
         <v>642</v>
       </c>
       <c r="F384" s="42" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -14528,7 +14609,7 @@
         <v>627</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E413" s="11"/>
       <c r="F413" s="3" t="s">
@@ -14550,7 +14631,7 @@
         <v>630</v>
       </c>
       <c r="F414" s="42" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -14561,7 +14642,7 @@
         <v>753</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="D415" s="22"/>
       <c r="E415" s="11"/>
@@ -14582,7 +14663,7 @@
         <v>642</v>
       </c>
       <c r="F416" s="42" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -14810,7 +14891,7 @@
         <v>771</v>
       </c>
       <c r="D431" s="27" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="E431" s="11"/>
       <c r="F431" s="3" t="s">
@@ -14846,7 +14927,7 @@
       <c r="D433" s="7"/>
       <c r="E433" s="11"/>
       <c r="F433" s="42" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -14922,7 +15003,7 @@
         <v>627</v>
       </c>
       <c r="D438" s="27" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E438" s="11"/>
       <c r="F438" s="3" t="s">
@@ -14942,7 +15023,7 @@
       <c r="D439" s="7"/>
       <c r="E439" s="11"/>
       <c r="F439" s="42" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -14970,7 +15051,7 @@
         <v>594</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="E441" s="11"/>
       <c r="F441" s="3" t="s">
@@ -15022,7 +15103,7 @@
       <c r="D444" s="3"/>
       <c r="E444" s="11"/>
       <c r="F444" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -15038,7 +15119,7 @@
       <c r="D445" s="3"/>
       <c r="E445" s="11"/>
       <c r="F445" s="42" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
@@ -15199,7 +15280,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -15948,7 +16031,7 @@
         <v>281</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>863</v>
@@ -15967,7 +16050,7 @@
         <v>278</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>864</v>
@@ -15986,7 +16069,7 @@
         <v>270</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>866</v>
@@ -16005,7 +16088,7 @@
         <v>267</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>868</v>
@@ -16024,7 +16107,7 @@
         <v>276</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>870</v>
@@ -16052,8 +16135,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -16608,16 +16691,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="45" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>873</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="3" t="s">
@@ -16627,16 +16710,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="45" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>873</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
@@ -16653,7 +16736,7 @@
         <v>907</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="3" t="s">
@@ -17229,10 +17312,10 @@
         <v>873</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E49" s="50"/>
       <c r="F49" s="50"/>
@@ -17499,9 +17582,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -17608,7 +17693,7 @@
         <v>1001</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1002</v>
+        <v>1146</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -17624,10 +17709,10 @@
         <v>994</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1004</v>
+        <v>1150</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -17643,10 +17728,10 @@
         <v>994</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
@@ -17662,10 +17747,10 @@
         <v>994</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -17681,10 +17766,10 @@
         <v>994</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -17700,10 +17785,10 @@
         <v>994</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1012</v>
+        <v>1154</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -17713,16 +17798,16 @@
     </row>
     <row r="11" spans="1:7" ht="47.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -17738,10 +17823,10 @@
         <v>994</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1017</v>
+        <v>1158</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -17757,19 +17842,19 @@
         <v>994</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>798</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
@@ -17780,10 +17865,10 @@
         <v>994</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -17799,19 +17884,19 @@
         <v>994</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>798</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1">
@@ -17822,10 +17907,10 @@
         <v>994</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -17841,19 +17926,19 @@
         <v>994</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1031</v>
+        <v>1168</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1032</v>
+        <v>1169</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>798</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1033</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -17864,7 +17949,7 @@
         <v>994</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>536</v>
@@ -17883,7 +17968,7 @@
         <v>994</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>539</v>
@@ -17902,10 +17987,10 @@
         <v>994</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -17921,10 +18006,10 @@
         <v>994</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
@@ -17940,10 +18025,10 @@
         <v>994</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
@@ -17959,7 +18044,7 @@
         <v>994</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>548</v>
@@ -17967,6 +18052,191 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.5">
+      <c r="A24" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="47.25">
+      <c r="A27" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="47.25">
+      <c r="A28" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="63">
+      <c r="A29" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="31.5">
+      <c r="A30" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="47.25">
+      <c r="A31" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -18021,19 +18291,19 @@
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>798</v>
@@ -18042,19 +18312,19 @@
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1050</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>798</v>
@@ -18063,19 +18333,19 @@
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>798</v>
@@ -18388,23 +18658,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
         <v>798</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -18412,13 +18682,13 @@
         <v>654</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
@@ -18431,13 +18701,13 @@
         <v>581</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>1055</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>1061</v>
-      </c>
       <c r="D4" s="33" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="33" t="s">
@@ -18450,13 +18720,13 @@
         <v>584</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="33" t="s">
@@ -18469,13 +18739,13 @@
         <v>587</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="33" t="s">
@@ -18488,22 +18758,22 @@
         <v>590</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>798</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -18511,13 +18781,13 @@
         <v>595</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="33" t="s">
@@ -18530,13 +18800,13 @@
         <v>598</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="33" t="s">
@@ -18549,13 +18819,13 @@
         <v>601</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="33" t="s">
@@ -18568,13 +18838,13 @@
         <v>604</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="33" t="s">
@@ -18587,10 +18857,10 @@
         <v>607</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>606</v>
@@ -18606,22 +18876,22 @@
         <v>610</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>798</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -18629,22 +18899,22 @@
         <v>620</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>798</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -18652,13 +18922,13 @@
         <v>623</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="33" t="s">
@@ -18671,13 +18941,13 @@
         <v>657</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="33" t="s">
@@ -18687,16 +18957,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="33" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="33" t="s">
@@ -18709,13 +18979,13 @@
         <v>691</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="33" t="s">
@@ -18725,25 +18995,25 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>798</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
@@ -18751,13 +19021,13 @@
         <v>728</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="33" t="s">
@@ -18770,56 +19040,56 @@
         <v>731</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>798</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>817</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="50" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>635</v>
@@ -18830,13 +19100,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="50" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="D24" s="50" t="s">
         <v>639</v>
@@ -18847,13 +19117,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="50" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>629</v>
@@ -18864,13 +19134,13 @@
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="50" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>641</v>
@@ -18881,13 +19151,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="51" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="D27" s="50" t="s">
         <v>774</v>
@@ -19201,20 +19471,20 @@
         <v>273</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>798</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
